--- a/docs/基本設計/テーブル定義書/ポーカー改修テーブル定義書.xlsx
+++ b/docs/基本設計/テーブル定義書/ポーカー改修テーブル定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Documents\勉強用設計書フォルダ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF699BFD-B8B7-4250-B4EC-F35757F7F07C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840733A5-A11B-4D84-ADFE-BA9AF6C5B489}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="8628" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="8628" activeTab="5" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="サマリ" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="ドメイン一覧" sheetId="4" r:id="rId3"/>
     <sheet name="ポーカーユーザー情報" sheetId="5" r:id="rId4"/>
     <sheet name="所持金" sheetId="6" r:id="rId5"/>
+    <sheet name="改訂履歴" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="70">
   <si>
     <t>エンティティ定義書　サマリ</t>
   </si>
@@ -193,20 +194,177 @@
     <t>参照元カラムリスト</t>
   </si>
   <si>
-    <t>fk_user_id</t>
-  </si>
-  <si>
     <t>@DECIMAL</t>
   </si>
   <si>
-    <t>poker_user_id_seq1というシーケンスを使用</t>
-    <rPh sb="26" eb="28">
+    <t>バージョン</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>改修対象</t>
+    <rPh sb="0" eb="2">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>削除対象</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>改修内容</t>
+    <rPh sb="0" eb="2">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>V2.0</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>サマリ
+エンティティ一覧
+ドメイン一覧
+ポーカーユーザー情報
+所持金</t>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ショジキン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ポーカーユーザー情報
+所持金</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ユーザー名の重複を防ぐためのユニーク制約</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フセ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイヤク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>poker_user_info</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>採番にはpoker_user_id_seq1というシーケンスを使用</t>
+    <rPh sb="0" eb="2">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
       <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>poker_user_id_seq2というシーケンスを使用</t>
+    <t>採番にはpoker_user_id_seq2というシーケンスを使用</t>
+    <rPh sb="0" eb="2">
+      <t>サイバン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ポーカーユーザー情報
+-----------------------------------
+・【カラム情報】ユーザーIDの採番にシーケンスを使うことを、ユーザーIDの備考欄に記載
+・【インデックス情報】ユーザー名の重複を防ぐためのユニーク制約を追加
+所持金
+-------------------------------------
+・【カラム情報】ユーザーIDの採番にシーケンスを使うことを、ユーザーIDの備考欄に記載
+</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>フセ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="127" eb="130">
+      <t>ショジキン</t>
+    </rPh>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -836,7 +994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -846,230 +1004,239 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1087,6 +1254,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF2385CA-8518-440B-AFB2-0791E49349C7}" name="テーブル3" displayName="テーブル3" ref="A1:E3" totalsRowShown="0">
+  <autoFilter ref="A1:E3" xr:uid="{0CEC04DD-2E76-442E-8DEE-22452231BF92}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{27AE3870-4BE7-43B5-A459-B9F49E6E1886}" name="バージョン"/>
+    <tableColumn id="2" xr3:uid="{E054FC02-59E4-4CF7-8681-29105F624D75}" name="新規作成"/>
+    <tableColumn id="3" xr3:uid="{B429195A-B677-481E-8BF4-6D39B294497C}" name="改修対象"/>
+    <tableColumn id="5" xr3:uid="{FB3228AD-6B2C-4B2F-876B-B15E8371DEA5}" name="削除対象"/>
+    <tableColumn id="4" xr3:uid="{7538D419-848D-40D1-99BD-4CD97E547BA9}" name="改修内容"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1391,7 +1572,7 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1408,501 +1589,501 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="53"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="22" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="16"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="8"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="17"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="9"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="17"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="9"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="17"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="9"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="17"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="9"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="17"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="9"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="17"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="9"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="17"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="9"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="17"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="9"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="17"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="9"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="17"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="9"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="17"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B16" s="9"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="17"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="9"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="17"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="9"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="17"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="9"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="17"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="9"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="17"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B21" s="9"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="17"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B22" s="9"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="17"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B23" s="9"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="17"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B24" s="9"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="17"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B25" s="9"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="17"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B26" s="9"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="17"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="60"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B27" s="9"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="17"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="60"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B28" s="9"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="17"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B29" s="9"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="17"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="60"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B30" s="9"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="17"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="60"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B31" s="9"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="17"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="60"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B32" s="9"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="17"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="60"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B33" s="9"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="17"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="60"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B34" s="9"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="17"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="60"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B35" s="9"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="17"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="60"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B36" s="9"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="17"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="60"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B37" s="9"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="17"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B38" s="9"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="17"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="60"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B39" s="9"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="17"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="60"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B40" s="9"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="17"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="60"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B41" s="9"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="17"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="60"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B42" s="9"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="17"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="60"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B43" s="9"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="17"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="60"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B44" s="9"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="17"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="60"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B45" s="9"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="17"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="60"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B46" s="9"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="17"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="60"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B47" s="9"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="17"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="60"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B48" s="9"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="17"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="60"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B49" s="9"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="17"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="60"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B50" s="9"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="17"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="60"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B51" s="9"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="17"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="60"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B52" s="9"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="17"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="60"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B53" s="9"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="17"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="60"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B54" s="9"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="17"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="60"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B55" s="9"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="17"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="60"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B56" s="9"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="17"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="60"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B57" s="9"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="17"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="60"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B58" s="9"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="17"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="60"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B59" s="9"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="17"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="60"/>
     </row>
     <row r="60" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B60" s="12"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="18"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B5:G60"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G60"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1925,59 +2106,59 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="23" customWidth="1"/>
-    <col min="2" max="4" width="30.69921875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="15.69921875" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="23"/>
+    <col min="1" max="1" width="4.69921875" style="7" customWidth="1"/>
+    <col min="2" max="4" width="30.69921875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A3" s="29">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="26">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11"/>
@@ -2007,28 +2188,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" style="23" customWidth="1"/>
-    <col min="2" max="3" width="20.69921875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="30.69921875" style="35" customWidth="1"/>
-    <col min="5" max="16384" width="8.796875" style="23"/>
+    <col min="1" max="1" width="4.69921875" style="7" customWidth="1"/>
+    <col min="2" max="3" width="20.69921875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="30.69921875" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="22" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2051,340 +2232,335 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" style="35" customWidth="1"/>
-    <col min="3" max="4" width="14.69921875" style="35" customWidth="1"/>
-    <col min="5" max="6" width="8.69921875" style="35" customWidth="1"/>
-    <col min="7" max="7" width="31.59765625" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="23"/>
+    <col min="1" max="1" width="3.69921875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" style="19" customWidth="1"/>
+    <col min="3" max="4" width="14.69921875" style="19" customWidth="1"/>
+    <col min="5" max="6" width="8.69921875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="38.59765625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="46" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="53"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="47" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="47" t="s">
+      <c r="D4" s="52"/>
+      <c r="E4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="15"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="47" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="15"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="15"/>
+      <c r="C6" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="16"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="42"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="17"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="9"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="17"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="18"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="35" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="29">
+      <c r="A14" s="13">
         <v>1</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="57" t="s">
-        <v>56</v>
+      <c r="G14" s="37" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="25">
+      <c r="A15" s="9">
         <v>2</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="39" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="26">
+      <c r="A16" s="10">
         <v>3</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="41" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="46" t="s">
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="35" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="49">
+      <c r="A20" s="29">
         <v>1</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="50" t="s">
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="51"/>
+      <c r="G20" s="31" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="69"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="70" t="s">
         <v>49</v>
       </c>
       <c r="F23" s="71"/>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="74" t="s">
+      <c r="D26" s="44"/>
+      <c r="E26" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="75"/>
-      <c r="G26" s="55" t="s">
+      <c r="F26" s="73"/>
+      <c r="G26" s="35" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="49">
+      <c r="A27" s="29">
         <v>1</v>
       </c>
-      <c r="B27" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="72" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="72" t="s">
+      <c r="D27" s="75"/>
+      <c r="E27" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="51" t="s">
+      <c r="F27" s="75"/>
+      <c r="G27" s="31" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E26:F26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="C2:D2"/>
@@ -2397,6 +2573,11 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2416,300 +2597,293 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" style="35" customWidth="1"/>
-    <col min="3" max="4" width="14.69921875" style="35" customWidth="1"/>
-    <col min="5" max="6" width="8.69921875" style="35" customWidth="1"/>
-    <col min="7" max="7" width="33.69921875" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="23"/>
+    <col min="1" max="1" width="3.69921875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" style="19" customWidth="1"/>
+    <col min="3" max="4" width="14.69921875" style="19" customWidth="1"/>
+    <col min="5" max="6" width="8.69921875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="40.59765625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="46" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="53"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="47" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="47" t="s">
+      <c r="D4" s="52"/>
+      <c r="E4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="15"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="47" t="s">
+      <c r="D5" s="52"/>
+      <c r="E5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="15"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="15"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="16"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="42"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="17"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="9"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="17"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="18"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="35" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="29">
+      <c r="A14" s="13">
         <v>1</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="57" t="s">
-        <v>57</v>
+      <c r="G14" s="37" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="26">
+      <c r="A15" s="10">
         <v>2</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="53" t="s">
+      <c r="D15" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="61" t="s">
+      <c r="G15" s="41" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="37" t="s">
+      <c r="D18" s="48"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="74" t="s">
+      <c r="D21" s="44"/>
+      <c r="E21" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="75"/>
-      <c r="G21" s="55" t="s">
+      <c r="F21" s="73"/>
+      <c r="G21" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="49">
+      <c r="A22" s="29">
         <v>1</v>
       </c>
-      <c r="B22" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="72" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="72" t="s">
+      <c r="D22" s="75"/>
+      <c r="E22" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="73"/>
-      <c r="G22" s="51" t="s">
+      <c r="F22" s="75"/>
+      <c r="G22" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="69"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="70" t="s">
         <v>52</v>
       </c>
       <c r="F25" s="71"/>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="22" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -2721,6 +2895,11 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2730,4 +2909,81 @@
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CA16AD-D8BC-4E62-B5B5-E172AE0CE101}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="23.59765625" customWidth="1"/>
+    <col min="2" max="2" width="26.8984375" customWidth="1"/>
+    <col min="3" max="3" width="30.296875" customWidth="1"/>
+    <col min="4" max="4" width="28.19921875" customWidth="1"/>
+    <col min="5" max="5" width="55.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.45">
+      <c r="A2" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="268.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/docs/基本設計/テーブル定義書/ポーカー改修テーブル定義書.xlsx
+++ b/docs/基本設計/テーブル定義書/ポーカー改修テーブル定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\基本設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\基本設計\テーブル定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840733A5-A11B-4D84-ADFE-BA9AF6C5B489}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14A5169-9D88-443E-BF01-2F94143495CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="8628" activeTab="5" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="8628" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="サマリ" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="96">
   <si>
     <t>エンティティ定義書　サマリ</t>
   </si>
@@ -149,12 +149,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>パスワード</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>インデックス情報</t>
   </si>
   <si>
@@ -167,9 +161,6 @@
     <t>ユニーク</t>
   </si>
   <si>
-    <t>poker_user_info_IX1</t>
-  </si>
-  <si>
     <t xml:space="preserve">user_name </t>
   </si>
   <si>
@@ -192,9 +183,6 @@
   </si>
   <si>
     <t>参照元カラムリスト</t>
-  </si>
-  <si>
-    <t>@DECIMAL</t>
   </si>
   <si>
     <t>バージョン</t>
@@ -304,13 +292,6 @@
     </rPh>
     <rPh sb="30" eb="32">
       <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>採番にはpoker_user_id_seq2というシーケンスを使用</t>
-    <rPh sb="0" eb="2">
-      <t>サイバン</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -364,6 +345,205 @@
     </rPh>
     <rPh sb="127" eb="130">
       <t>ショジキン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>シーケンス定義</t>
+    <rPh sb="5" eb="7">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>シーケンス名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>poker_user_id_seq1</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>START WITH(初期値)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>INCRIMENT(増分)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>MINVALUE(最小値)</t>
+    <rPh sb="9" eb="12">
+      <t>サイショウチ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>MAXVALUE(最大値)</t>
+    <rPh sb="9" eb="12">
+      <t>サイダイチ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>CACHE(メモリ上に割り当てるか)</t>
+    <rPh sb="9" eb="10">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>CYCLE (循環利用のする or しない)</t>
+    <rPh sb="7" eb="9">
+      <t>ジュンカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>32(デフォルト)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>9223372036854775807(デフォルト)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>しない(デフォルト)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>@VARCHAR(255)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ログイン日時</t>
+    <rPh sb="4" eb="6">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>login_date</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>@TIMESTAMP</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>所持金</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>possession_money</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>@DECIMAL</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>update_date</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>poker_user_info_UNQ1</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>V2.1</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1(デフォルト)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ポーカーユーザー情報
+-----------------------------------
+・シーケンス定義を追加
+・「ログイン日時」カラムを追加
+・【インデックス情報】インデックス名をpoker_user_info_IX1→poker_user_info_UNQ1に変更
+所持金
+-------------------------------------
+・「更新日時」カラムを追加
+・シーケンスに関する記述を削除
+</t>
+    <rPh sb="56" eb="58">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="202" eb="203">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="208" eb="210">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>作業日時</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -492,7 +672,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -985,6 +1165,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -994,7 +1246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1142,32 +1394,17 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1190,6 +1427,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1217,33 +1493,49 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1257,14 +1549,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF2385CA-8518-440B-AFB2-0791E49349C7}" name="テーブル3" displayName="テーブル3" ref="A1:E3" totalsRowShown="0">
-  <autoFilter ref="A1:E3" xr:uid="{0CEC04DD-2E76-442E-8DEE-22452231BF92}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF2385CA-8518-440B-AFB2-0791E49349C7}" name="テーブル3" displayName="テーブル3" ref="A1:F4" totalsRowShown="0">
+  <autoFilter ref="A1:F4" xr:uid="{0CEC04DD-2E76-442E-8DEE-22452231BF92}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{27AE3870-4BE7-43B5-A459-B9F49E6E1886}" name="バージョン"/>
     <tableColumn id="2" xr3:uid="{E054FC02-59E4-4CF7-8681-29105F624D75}" name="新規作成"/>
     <tableColumn id="3" xr3:uid="{B429195A-B677-481E-8BF4-6D39B294497C}" name="改修対象"/>
     <tableColumn id="5" xr3:uid="{FB3228AD-6B2C-4B2F-876B-B15E8371DEA5}" name="削除対象"/>
     <tableColumn id="4" xr3:uid="{7538D419-848D-40D1-99BD-4CD97E547BA9}" name="改修内容"/>
+    <tableColumn id="6" xr3:uid="{4B55A420-6355-48F7-B1B2-5F0D1E97527C}" name="作業日時" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1572,7 +1865,7 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1592,489 +1885,489 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="53"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="68"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="61"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="61"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="61"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="61"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="61"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="61"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="61"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="61"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="61"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="61"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B16" s="61"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="61"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="61"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="61"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="61"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="60"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B21" s="61"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="60"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B22" s="61"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="60"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B23" s="61"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="60"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="55"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B24" s="61"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="60"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="55"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B25" s="61"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B26" s="61"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="60"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="55"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B27" s="61"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="60"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="55"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B28" s="61"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B29" s="61"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="60"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B30" s="61"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="60"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B31" s="61"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="60"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="55"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B32" s="61"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="60"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="55"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B33" s="61"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="55"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B34" s="61"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="60"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="55"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B35" s="61"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="60"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="55"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B36" s="61"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="60"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="55"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B37" s="61"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="55"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B38" s="61"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="60"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B39" s="61"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="60"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="55"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B40" s="61"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="60"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="55"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B41" s="61"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="60"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="55"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B42" s="61"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="60"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="55"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B43" s="61"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="60"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="55"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B44" s="61"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="60"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B45" s="61"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="60"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B46" s="61"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="60"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="55"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B47" s="61"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="60"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="55"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B48" s="61"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="60"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="55"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B49" s="61"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="60"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="55"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B50" s="61"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="60"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B51" s="61"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="60"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="55"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B52" s="61"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="60"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="55"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B53" s="61"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="60"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B54" s="61"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="60"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="55"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B55" s="61"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="60"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="55"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B56" s="61"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="60"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="55"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B57" s="61"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="60"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="55"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B58" s="61"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="60"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="55"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B59" s="61"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="60"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="55"/>
     </row>
     <row r="60" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B60" s="62"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="64"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2229,20 +2522,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.69921875" style="7" customWidth="1"/>
     <col min="2" max="2" width="16.69921875" style="19" customWidth="1"/>
-    <col min="3" max="4" width="14.69921875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="17.09765625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" style="19" customWidth="1"/>
     <col min="5" max="6" width="8.69921875" style="19" customWidth="1"/>
     <col min="7" max="7" width="38.59765625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="7"/>
+    <col min="8" max="8" width="23.3984375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="25.5" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
@@ -2254,105 +2550,105 @@
       <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="53"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="52"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="52"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="54"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="52"/>
+      <c r="C6" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="63"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="54"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="66"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="61"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="8" t="s">
@@ -2402,7 +2698,7 @@
         <v>24</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -2428,141 +2724,222 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="10">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="83">
         <v>3</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="85"/>
+      <c r="G16" s="86"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="10">
+        <v>4</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="33" t="s">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="33" t="s">
+      <c r="C21" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="29">
+        <v>1</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="76"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="8" t="s">
+      <c r="G22" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="45" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="16" t="s">
+      <c r="D25" s="46"/>
+      <c r="E25" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="79"/>
+      <c r="G25" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+      <c r="A28" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="29">
+      <c r="B28" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="44"/>
+      <c r="E28" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="81"/>
+      <c r="G28" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="29">
         <v>1</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="31" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="70"/>
+      <c r="E29" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="70"/>
+      <c r="G29" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="20" t="s">
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.45">
+      <c r="A32" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="71"/>
-      <c r="G23" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A26" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="73"/>
-      <c r="G26" s="35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="29">
+      <c r="B32" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="81"/>
+      <c r="G32" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="29">
         <v>1</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="75"/>
-      <c r="G27" s="31" t="s">
-        <v>32</v>
+      <c r="B33" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="70"/>
+      <c r="G33" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="82" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
+  <mergeCells count="19">
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -2575,9 +2952,8 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="E25:F25"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2594,10 +2970,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2619,105 +2995,105 @@
       <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="53"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="52"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="52"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="54"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="65"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="54"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="66"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="61"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="8" t="s">
@@ -2766,125 +3142,142 @@
       <c r="F14" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="10">
+      <c r="G14" s="37"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="87">
         <v>2</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="40" t="s">
+      <c r="B15" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="89"/>
+      <c r="G15" s="90"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="10">
+        <v>3</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G16" s="41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="8" t="s">
+    <row r="18" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="45" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="20" t="s">
+      <c r="D19" s="48"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="8" t="s">
+      <c r="B22" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="81"/>
+      <c r="G22" s="35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A21" s="16" t="s">
+    <row r="23" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="29">
+        <v>1</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="70"/>
+      <c r="E23" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="70"/>
+      <c r="G23" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="72" t="s">
+      <c r="B26" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="35" t="s">
+      <c r="F26" s="79"/>
+      <c r="G26" s="22" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="29">
-        <v>1</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="75"/>
-      <c r="E22" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="75"/>
-      <c r="G22" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="22" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -2897,9 +3290,9 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2913,9 +3306,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CA16AD-D8BC-4E62-B5B5-E172AE0CE101}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -2926,57 +3319,87 @@
     <col min="3" max="3" width="30.296875" customWidth="1"/>
     <col min="4" max="4" width="28.19921875" customWidth="1"/>
     <col min="5" max="5" width="55.69921875" customWidth="1"/>
+    <col min="6" max="6" width="15.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.45">
+      <c r="A2" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="92">
+        <v>43479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="268.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.45">
-      <c r="A2" s="78" t="s">
+      <c r="B3" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="78" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="268.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="79" t="s">
+      <c r="D3" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="79" t="s">
-        <v>69</v>
+      <c r="F3" s="92">
+        <v>43484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="216" x14ac:dyDescent="0.45">
+      <c r="A4" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="92">
+        <v>43491</v>
       </c>
     </row>
   </sheetData>

--- a/docs/基本設計/テーブル定義書/ポーカー改修テーブル定義書.xlsx
+++ b/docs/基本設計/テーブル定義書/ポーカー改修テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\基本設計\テーブル定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14A5169-9D88-443E-BF01-2F94143495CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17AF280-074B-4E59-BE12-C9053ED06C93}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="8628" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="8628" activeTab="5" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="サマリ" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="99">
   <si>
     <t>エンティティ定義書　サマリ</t>
   </si>
@@ -367,10 +367,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>poker_user_id_seq1</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>START WITH(初期値)</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -479,10 +475,6 @@
   </si>
   <si>
     <t>update_date</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>poker_user_info_UNQ1</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -544,6 +536,48 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>POKER_USER_INFO_UNQ1</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>V2.2</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ポーカーユーザー情報</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>POKER_USER_ID_SEQ1</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ポーカーユーザー情報
+-----------------------------------
+・【インデックス情報】インデックス名をpoker_user_info_UNQ1→POKER_USER_INFO_UNQ1に変更
+・定義の命名規則統一のため、poker_user_id_seq1→POKER_USER_ID_SEQ1に変更
+</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>メイメイ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>キソク</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>トウイツ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -1406,6 +1440,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1454,18 +1521,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1487,44 +1542,23 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1549,8 +1583,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF2385CA-8518-440B-AFB2-0791E49349C7}" name="テーブル3" displayName="テーブル3" ref="A1:F4" totalsRowShown="0">
-  <autoFilter ref="A1:F4" xr:uid="{0CEC04DD-2E76-442E-8DEE-22452231BF92}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF2385CA-8518-440B-AFB2-0791E49349C7}" name="テーブル3" displayName="テーブル3" ref="A1:F5" totalsRowShown="0">
+  <autoFilter ref="A1:F5" xr:uid="{0CEC04DD-2E76-442E-8DEE-22452231BF92}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{27AE3870-4BE7-43B5-A459-B9F49E6E1886}" name="バージョン"/>
     <tableColumn id="2" xr3:uid="{E054FC02-59E4-4CF7-8681-29105F624D75}" name="新規作成"/>
@@ -1865,7 +1899,7 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1885,489 +1919,489 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="64"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="65"/>
+      <c r="G3" s="76"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="66"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="56"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="66"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="56"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="56"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="56"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="56"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="56"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="56"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="66"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="56"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="66"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="56"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="56"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="66"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B16" s="56"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="56"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="66"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="56"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="56"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="56"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="66"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B21" s="56"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="66"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B22" s="56"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="66"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B23" s="56"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="55"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B24" s="56"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="55"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B25" s="56"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="66"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B26" s="56"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="66"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B27" s="56"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="55"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="66"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B28" s="56"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="55"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="66"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B29" s="56"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="66"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B30" s="56"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="55"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="66"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B31" s="56"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="55"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="66"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B32" s="56"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="55"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="66"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B33" s="56"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="55"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="66"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B34" s="56"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="55"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="66"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B35" s="56"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="55"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="66"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B36" s="56"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="66"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B37" s="56"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="55"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="66"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B38" s="56"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="55"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="66"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B39" s="56"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="55"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="66"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B40" s="56"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="55"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="66"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B41" s="56"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="55"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="66"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B42" s="56"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="55"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="66"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B43" s="56"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="55"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="66"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B44" s="56"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="55"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="66"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B45" s="56"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="55"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="66"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B46" s="56"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="55"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="66"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B47" s="56"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="55"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="66"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B48" s="56"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="66"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B49" s="56"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="66"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B50" s="56"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="55"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="66"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B51" s="56"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="66"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B52" s="56"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="55"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="66"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B53" s="56"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="55"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="66"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B54" s="56"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="55"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="66"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B55" s="56"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="55"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="66"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B56" s="56"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="55"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="66"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B57" s="56"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="55"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="66"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B58" s="56"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="55"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="66"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B59" s="56"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="55"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="66"/>
     </row>
     <row r="60" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B60" s="57"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="59"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2524,19 +2558,19 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.69921875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="22.296875" style="19" customWidth="1"/>
     <col min="3" max="3" width="17.09765625" style="19" customWidth="1"/>
     <col min="4" max="4" width="14.69921875" style="19" customWidth="1"/>
     <col min="5" max="6" width="8.69921875" style="19" customWidth="1"/>
     <col min="7" max="7" width="38.59765625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="23.3984375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="26.59765625" style="7" customWidth="1"/>
     <col min="9" max="9" width="25.5" style="7" customWidth="1"/>
     <col min="10" max="16384" width="8.796875" style="7"/>
   </cols>
@@ -2550,105 +2584,105 @@
       <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="64"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="63"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="65"/>
+      <c r="G3" s="76"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="65"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="76"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="65"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="76"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="65"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="76"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="79"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="74"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="56"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="8" t="s">
@@ -2725,39 +2759,39 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="83">
+      <c r="A16" s="54">
         <v>3</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="D16" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="E16" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="86"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="10">
         <v>4</v>
       </c>
       <c r="B17" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="D17" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>84</v>
-      </c>
       <c r="E17" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="40" t="s">
         <v>24</v>
@@ -2795,13 +2829,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="77"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="84"/>
       <c r="F22" s="30" t="s">
         <v>38</v>
       </c>
@@ -2825,10 +2859,10 @@
         <v>41</v>
       </c>
       <c r="D25" s="46"/>
-      <c r="E25" s="78" t="s">
+      <c r="E25" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="79"/>
+      <c r="F25" s="86"/>
       <c r="G25" s="22" t="s">
         <v>47</v>
       </c>
@@ -2849,10 +2883,10 @@
         <v>41</v>
       </c>
       <c r="D28" s="44"/>
-      <c r="E28" s="80" t="s">
+      <c r="E28" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="81"/>
+      <c r="F28" s="90"/>
       <c r="G28" s="35" t="s">
         <v>50</v>
       </c>
@@ -2862,14 +2896,14 @@
         <v>1</v>
       </c>
       <c r="B29" s="30"/>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="69" t="s">
+      <c r="D29" s="92"/>
+      <c r="E29" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="70"/>
+      <c r="F29" s="92"/>
       <c r="G29" s="31" t="s">
         <v>32</v>
       </c>
@@ -2887,23 +2921,23 @@
         <v>66</v>
       </c>
       <c r="C32" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="E32" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="80" t="s">
+      <c r="F32" s="90"/>
+      <c r="G32" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="81"/>
-      <c r="G32" s="35" t="s">
+      <c r="H32" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" s="26" t="s">
         <v>72</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -2911,26 +2945,26 @@
         <v>1</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C33" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" s="70"/>
+      <c r="D33" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="92"/>
       <c r="G33" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="H33" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="I33" s="82" t="s">
-        <v>75</v>
+      <c r="I33" s="53" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2940,20 +2974,20 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="E25:F25"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2995,105 +3029,105 @@
       <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="64"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="63"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="65"/>
+      <c r="G3" s="76"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="65"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="76"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="65"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="76"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="65"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="76"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="79"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="74"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="56"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="8" t="s">
@@ -3145,39 +3179,39 @@
       <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="87">
+      <c r="A15" s="58">
         <v>2</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="D15" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="89"/>
-      <c r="G15" s="90"/>
+      <c r="E15" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
     </row>
     <row r="16" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="10">
         <v>3</v>
       </c>
       <c r="B16" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="33" t="s">
-        <v>89</v>
-      </c>
       <c r="D16" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" s="40" t="s">
         <v>24</v>
@@ -3226,10 +3260,10 @@
         <v>41</v>
       </c>
       <c r="D22" s="44"/>
-      <c r="E22" s="80" t="s">
+      <c r="E22" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="81"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="35" t="s">
         <v>47</v>
       </c>
@@ -3239,14 +3273,14 @@
         <v>1</v>
       </c>
       <c r="B23" s="30"/>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="69" t="s">
+      <c r="D23" s="92"/>
+      <c r="E23" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="70"/>
+      <c r="F23" s="92"/>
       <c r="G23" s="31" t="s">
         <v>32</v>
       </c>
@@ -3267,10 +3301,10 @@
         <v>41</v>
       </c>
       <c r="D26" s="46"/>
-      <c r="E26" s="78" t="s">
+      <c r="E26" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="79"/>
+      <c r="F26" s="86"/>
       <c r="G26" s="22" t="s">
         <v>50</v>
       </c>
@@ -3306,10 +3340,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CA16AD-D8BC-4E62-B5B5-E172AE0CE101}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3339,7 +3373,7 @@
         <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.45">
@@ -3358,7 +3392,7 @@
       <c r="E2" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="92">
+      <c r="F2" s="63">
         <v>43479</v>
       </c>
     </row>
@@ -3378,28 +3412,48 @@
       <c r="E3" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="92">
+      <c r="F3" s="63">
         <v>43484</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="216" x14ac:dyDescent="0.45">
       <c r="A4" s="50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="62" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="50" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="92">
+        <v>92</v>
+      </c>
+      <c r="F4" s="63">
         <v>43491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="126" x14ac:dyDescent="0.45">
+      <c r="A5" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="63">
+        <v>43492</v>
       </c>
     </row>
   </sheetData>

--- a/docs/基本設計/テーブル定義書/ポーカー改修テーブル定義書.xlsx
+++ b/docs/基本設計/テーブル定義書/ポーカー改修テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\基本設計\テーブル定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17AF280-074B-4E59-BE12-C9053ED06C93}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ADC74A-02BB-4C35-982D-3B4F7F345EEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="8628" activeTab="5" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="8628" activeTab="3" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="サマリ" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="102">
   <si>
     <t>エンティティ定義書　サマリ</t>
   </si>
@@ -579,6 +579,42 @@
     <rPh sb="119" eb="121">
       <t>トウイツ</t>
     </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>V2.3</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ポーカーユーザー情報
+-----------------------------------
+・「ログイン日時」カラムにデフォルト値追加
+所持金
+-------------------------------------
+・「更新日時」カラムにデフォルト値を追加
+</t>
+    <rPh sb="53" eb="55">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>now()</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1521,6 +1557,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1546,18 +1594,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1583,8 +1619,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF2385CA-8518-440B-AFB2-0791E49349C7}" name="テーブル3" displayName="テーブル3" ref="A1:F5" totalsRowShown="0">
-  <autoFilter ref="A1:F5" xr:uid="{0CEC04DD-2E76-442E-8DEE-22452231BF92}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF2385CA-8518-440B-AFB2-0791E49349C7}" name="テーブル3" displayName="テーブル3" ref="A1:F6" totalsRowShown="0">
+  <autoFilter ref="A1:F6" xr:uid="{0CEC04DD-2E76-442E-8DEE-22452231BF92}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{27AE3870-4BE7-43B5-A459-B9F49E6E1886}" name="バージョン"/>
     <tableColumn id="2" xr3:uid="{E054FC02-59E4-4CF7-8681-29105F624D75}" name="新規作成"/>
@@ -2558,8 +2594,8 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2584,14 +2620,14 @@
       <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="91" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="91" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="75"/>
@@ -2600,12 +2636,12 @@
       <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="88"/>
+      <c r="C3" s="92"/>
       <c r="D3" s="74"/>
       <c r="E3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="88" t="s">
+      <c r="F3" s="92" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="76"/>
@@ -2614,44 +2650,44 @@
       <c r="B4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="92" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="74"/>
       <c r="E4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="88"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="76"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="92" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="74"/>
       <c r="E5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="88"/>
+      <c r="F5" s="92"/>
       <c r="G5" s="76"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="92" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="74"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="88"/>
+      <c r="F6" s="92"/>
       <c r="G6" s="76"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="84" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="78"/>
@@ -2661,7 +2697,7 @@
       <c r="G7" s="79"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="81"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="65"/>
       <c r="D8" s="65"/>
       <c r="E8" s="65"/>
@@ -2794,7 +2830,7 @@
         <v>80</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="G17" s="41" t="s">
         <v>24</v>
@@ -2831,11 +2867,11 @@
       <c r="B22" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="83"/>
-      <c r="E22" s="84"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
       <c r="F22" s="30" t="s">
         <v>38</v>
       </c>
@@ -2859,10 +2895,10 @@
         <v>41</v>
       </c>
       <c r="D25" s="46"/>
-      <c r="E25" s="85" t="s">
+      <c r="E25" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="86"/>
+      <c r="F25" s="90"/>
       <c r="G25" s="22" t="s">
         <v>47</v>
       </c>
@@ -2883,10 +2919,10 @@
         <v>41</v>
       </c>
       <c r="D28" s="44"/>
-      <c r="E28" s="89" t="s">
+      <c r="E28" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="90"/>
+      <c r="F28" s="81"/>
       <c r="G28" s="35" t="s">
         <v>50</v>
       </c>
@@ -2896,14 +2932,14 @@
         <v>1</v>
       </c>
       <c r="B29" s="30"/>
-      <c r="C29" s="91" t="s">
+      <c r="C29" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="92"/>
-      <c r="E29" s="91" t="s">
+      <c r="D29" s="83"/>
+      <c r="E29" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="92"/>
+      <c r="F29" s="83"/>
       <c r="G29" s="31" t="s">
         <v>32</v>
       </c>
@@ -2926,10 +2962,10 @@
       <c r="D32" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="89" t="s">
+      <c r="E32" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="90"/>
+      <c r="F32" s="81"/>
       <c r="G32" s="35" t="s">
         <v>71</v>
       </c>
@@ -2953,10 +2989,10 @@
       <c r="D33" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="91" t="s">
+      <c r="E33" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="92"/>
+      <c r="F33" s="83"/>
       <c r="G33" s="31" t="s">
         <v>75</v>
       </c>
@@ -2969,11 +3005,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C22:E22"/>
@@ -2988,6 +3019,11 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3007,7 +3043,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -3029,14 +3065,14 @@
       <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="91" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="91" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="75"/>
@@ -3045,12 +3081,12 @@
       <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="88"/>
+      <c r="C3" s="92"/>
       <c r="D3" s="74"/>
       <c r="E3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="88" t="s">
+      <c r="F3" s="92" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="76"/>
@@ -3059,44 +3095,44 @@
       <c r="B4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="92" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="74"/>
       <c r="E4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="88"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="76"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="92" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="74"/>
       <c r="E5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="88"/>
+      <c r="F5" s="92"/>
       <c r="G5" s="76"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="92" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="74"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="88"/>
+      <c r="F6" s="92"/>
       <c r="G6" s="76"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="84" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="78"/>
@@ -3106,7 +3142,7 @@
       <c r="G7" s="79"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="81"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="65"/>
       <c r="D8" s="65"/>
       <c r="E8" s="65"/>
@@ -3214,7 +3250,7 @@
         <v>80</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="G16" s="41" t="s">
         <v>24</v>
@@ -3260,10 +3296,10 @@
         <v>41</v>
       </c>
       <c r="D22" s="44"/>
-      <c r="E22" s="89" t="s">
+      <c r="E22" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="90"/>
+      <c r="F22" s="81"/>
       <c r="G22" s="35" t="s">
         <v>47</v>
       </c>
@@ -3273,14 +3309,14 @@
         <v>1</v>
       </c>
       <c r="B23" s="30"/>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="92"/>
-      <c r="E23" s="91" t="s">
+      <c r="D23" s="83"/>
+      <c r="E23" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="92"/>
+      <c r="F23" s="83"/>
       <c r="G23" s="31" t="s">
         <v>32</v>
       </c>
@@ -3301,10 +3337,10 @@
         <v>41</v>
       </c>
       <c r="D26" s="46"/>
-      <c r="E26" s="85" t="s">
+      <c r="E26" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="86"/>
+      <c r="F26" s="90"/>
       <c r="G26" s="22" t="s">
         <v>50</v>
       </c>
@@ -3340,10 +3376,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CA16AD-D8BC-4E62-B5B5-E172AE0CE101}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3456,6 +3492,26 @@
         <v>43492</v>
       </c>
     </row>
+    <row r="6" spans="1:6" ht="144.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="63">
+        <v>43509</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/基本設計/テーブル定義書/ポーカー改修テーブル定義書.xlsx
+++ b/docs/基本設計/テーブル定義書/ポーカー改修テーブル定義書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Downloads\pleiades-4.8.0-java-win-64bit-jre_20180923\pleiades\workspace\poker\docs\基本設計\テーブル定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ADC74A-02BB-4C35-982D-3B4F7F345EEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6940AD-71A4-4944-9500-CAE57F3D2324}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="8628" activeTab="3" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{2063D046-5AE3-42D6-BCF2-16FE09FC0C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="サマリ" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="106">
   <si>
     <t>エンティティ定義書　サマリ</t>
   </si>
@@ -128,9 +128,6 @@
     <t>ユーザーID</t>
   </si>
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
     <t>@INT</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>ユーザー名</t>
   </si>
   <si>
-    <t>user_name</t>
-  </si>
-  <si>
     <t>@VARCHAR(255)</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
   </si>
   <si>
     <t>ユニーク</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_name </t>
   </si>
   <si>
     <t>リレーションシップ情報(FK側)</t>
@@ -278,20 +269,6 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>セイヤク</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>poker_user_info</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>採番にはpoker_user_id_seq1というシーケンスを使用</t>
-    <rPh sb="0" eb="2">
-      <t>サイバン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -428,10 +405,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>password</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>@VARCHAR(255)</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -447,19 +420,11 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>login_date</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>@TIMESTAMP</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>所持金</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>possession_money</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -471,10 +436,6 @@
     <rPh sb="0" eb="4">
       <t>コウシンニチジ</t>
     </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>update_date</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -614,7 +575,113 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>now()</t>
+    <t>POSSESSION_MONEY</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>POSSESSION_MONEY</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>NOW()</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>POKER_USER_INFO</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>POKER_USER_INFO</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>LOGIN_DATE</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>採番にはPOKER_USER_ID_SEQ1というシーケンスを使用</t>
+    <rPh sb="0" eb="2">
+      <t>サイバン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>リレーションシップ情報(PK側)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ポーカーユーザー情報
+-----------------------------------
+以下の箇所の小文字表記を大文字表記にした
+・物理エンティティ名
+・カラム情報
+・インデックス情報
+・リレーションシップ情報(PK側)
+所持金
+-----------------------------
+以下の箇所の小文字表記を大文字表記にした
+・物理エンティティ名
+・カラム情報
+・リレーションシップ情報(FK側)</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>オオモジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="115" eb="118">
+      <t>ショジキン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>V2.4</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1557,18 +1624,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1594,6 +1649,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1619,8 +1686,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF2385CA-8518-440B-AFB2-0791E49349C7}" name="テーブル3" displayName="テーブル3" ref="A1:F6" totalsRowShown="0">
-  <autoFilter ref="A1:F6" xr:uid="{0CEC04DD-2E76-442E-8DEE-22452231BF92}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF2385CA-8518-440B-AFB2-0791E49349C7}" name="テーブル3" displayName="テーブル3" ref="A1:F7" totalsRowShown="0">
+  <autoFilter ref="A1:F7" xr:uid="{0CEC04DD-2E76-442E-8DEE-22452231BF92}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{27AE3870-4BE7-43B5-A459-B9F49E6E1886}" name="バージョン"/>
     <tableColumn id="2" xr3:uid="{E054FC02-59E4-4CF7-8681-29105F624D75}" name="新規作成"/>
@@ -2595,7 +2662,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2605,7 +2672,7 @@
     <col min="3" max="3" width="17.09765625" style="19" customWidth="1"/>
     <col min="4" max="4" width="14.69921875" style="19" customWidth="1"/>
     <col min="5" max="6" width="8.69921875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="38.59765625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="41.19921875" style="19" customWidth="1"/>
     <col min="8" max="8" width="26.59765625" style="7" customWidth="1"/>
     <col min="9" max="9" width="25.5" style="7" customWidth="1"/>
     <col min="10" max="16384" width="8.796875" style="7"/>
@@ -2620,14 +2687,14 @@
       <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="87" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="91" t="s">
+      <c r="F2" s="87" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="75"/>
@@ -2636,12 +2703,12 @@
       <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="92"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="74"/>
       <c r="E3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="92" t="s">
+      <c r="F3" s="88" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="76"/>
@@ -2650,44 +2717,44 @@
       <c r="B4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="88" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="74"/>
       <c r="E4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="92"/>
+      <c r="F4" s="88"/>
       <c r="G4" s="76"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="88" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="74"/>
       <c r="E5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="92"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="76"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="92" t="s">
-        <v>62</v>
+      <c r="C6" s="88" t="s">
+        <v>98</v>
       </c>
       <c r="D6" s="74"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="92"/>
+      <c r="F6" s="88"/>
       <c r="G6" s="76"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="80" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="78"/>
@@ -2697,7 +2764,7 @@
       <c r="G7" s="79"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="85"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="65"/>
       <c r="D8" s="65"/>
       <c r="E8" s="65"/>
@@ -2756,19 +2823,19 @@
         <v>31</v>
       </c>
       <c r="C14" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="E14" s="34" t="s">
         <v>33</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>34</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -2776,16 +2843,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="E15" s="32" t="s">
         <v>36</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>38</v>
       </c>
       <c r="F15" s="38" t="s">
         <v>24</v>
@@ -2799,16 +2866,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F16" s="56"/>
       <c r="G16" s="57"/>
@@ -2818,19 +2885,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G17" s="41" t="s">
         <v>24</v>
@@ -2838,7 +2905,7 @@
     </row>
     <row r="20" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -2846,15 +2913,15 @@
         <v>10</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="43"/>
       <c r="E21" s="44"/>
       <c r="F21" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>4</v>
@@ -2865,23 +2932,23 @@
         <v>1</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
+        <v>85</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="83"/>
+      <c r="E22" s="84"/>
       <c r="F22" s="30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G22" s="31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -2889,23 +2956,23 @@
         <v>10</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="46"/>
-      <c r="E25" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="90"/>
+      <c r="E25" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="86"/>
       <c r="G25" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="8" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.45">
@@ -2913,18 +2980,18 @@
         <v>10</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" s="44"/>
-      <c r="E28" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="81"/>
+      <c r="E28" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="90"/>
       <c r="G28" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -2932,21 +2999,21 @@
         <v>1</v>
       </c>
       <c r="B29" s="30"/>
-      <c r="C29" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="83"/>
-      <c r="E29" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="83"/>
+      <c r="C29" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="92"/>
+      <c r="E29" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="92"/>
       <c r="G29" s="31" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.45">
@@ -2954,26 +3021,26 @@
         <v>10</v>
       </c>
       <c r="B32" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="90"/>
+      <c r="G32" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="H32" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="81"/>
-      <c r="G32" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>73</v>
-      </c>
       <c r="I32" s="26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -2981,30 +3048,35 @@
         <v>1</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D33" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" s="83"/>
+        <v>82</v>
+      </c>
+      <c r="E33" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="92"/>
       <c r="G33" s="31" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H33" s="53" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I33" s="53" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C22:E22"/>
@@ -3019,11 +3091,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3043,14 +3110,15 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.69921875" style="7" customWidth="1"/>
     <col min="2" max="2" width="16.69921875" style="19" customWidth="1"/>
-    <col min="3" max="4" width="14.69921875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="17.69921875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" style="19" customWidth="1"/>
     <col min="5" max="6" width="8.69921875" style="19" customWidth="1"/>
     <col min="7" max="7" width="40.59765625" style="19" customWidth="1"/>
     <col min="8" max="16384" width="8.796875" style="7"/>
@@ -3065,14 +3133,14 @@
       <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="87" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="91" t="s">
+      <c r="F2" s="87" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="75"/>
@@ -3081,12 +3149,12 @@
       <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="92"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="74"/>
       <c r="E3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="92" t="s">
+      <c r="F3" s="88" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="76"/>
@@ -3095,44 +3163,44 @@
       <c r="B4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="88" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="74"/>
       <c r="E4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="92"/>
+      <c r="F4" s="88"/>
       <c r="G4" s="76"/>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="88" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="74"/>
       <c r="E5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="92"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="76"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="92" t="s">
-        <v>17</v>
+      <c r="C6" s="88" t="s">
+        <v>92</v>
       </c>
       <c r="D6" s="74"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="92"/>
+      <c r="F6" s="88"/>
       <c r="G6" s="76"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="80" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="78"/>
@@ -3142,7 +3210,7 @@
       <c r="G7" s="79"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="85"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="65"/>
       <c r="D8" s="65"/>
       <c r="E8" s="65"/>
@@ -3201,13 +3269,13 @@
         <v>31</v>
       </c>
       <c r="C14" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="E14" s="34" t="s">
         <v>33</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>34</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>24</v>
@@ -3219,16 +3287,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="61"/>
@@ -3238,19 +3306,19 @@
         <v>3</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G16" s="41" t="s">
         <v>24</v>
@@ -3258,7 +3326,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
@@ -3266,15 +3334,15 @@
         <v>10</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="48"/>
       <c r="E19" s="46"/>
       <c r="F19" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>4</v>
@@ -3282,7 +3350,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -3290,18 +3358,18 @@
         <v>10</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="44"/>
-      <c r="E22" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="81"/>
+      <c r="E22" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="90"/>
       <c r="G22" s="35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -3309,21 +3377,21 @@
         <v>1</v>
       </c>
       <c r="B23" s="30"/>
-      <c r="C23" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="83"/>
+      <c r="C23" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="92"/>
+      <c r="E23" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="92"/>
       <c r="G23" s="31" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -3331,18 +3399,18 @@
         <v>10</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D26" s="46"/>
-      <c r="E26" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="90"/>
+      <c r="E26" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="86"/>
       <c r="G26" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3376,10 +3444,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CA16AD-D8BC-4E62-B5B5-E172AE0CE101}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3394,39 +3462,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
       <c r="F1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.45">
       <c r="A2" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>59</v>
-      </c>
       <c r="C2" s="50" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" s="63">
         <v>43479</v>
@@ -3434,19 +3502,19 @@
     </row>
     <row r="3" spans="1:6" ht="268.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="50" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B3" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="51" t="s">
-        <v>60</v>
-      </c>
       <c r="D3" s="50" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F3" s="63">
         <v>43484</v>
@@ -3454,19 +3522,19 @@
     </row>
     <row r="4" spans="1:6" ht="216" x14ac:dyDescent="0.45">
       <c r="A4" s="50" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F4" s="63">
         <v>43491</v>
@@ -3474,19 +3542,19 @@
     </row>
     <row r="5" spans="1:6" ht="126" x14ac:dyDescent="0.45">
       <c r="A5" s="50" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F5" s="63">
         <v>43492</v>
@@ -3494,22 +3562,42 @@
     </row>
     <row r="6" spans="1:6" ht="144.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="50" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B6" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="62" t="s">
-        <v>60</v>
-      </c>
       <c r="D6" s="50" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F6" s="63">
         <v>43509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="252" x14ac:dyDescent="0.45">
+      <c r="A7" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="63">
+        <v>43520</v>
       </c>
     </row>
   </sheetData>
